--- a/VERANOPOLIS.xlsx
+++ b/VERANOPOLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F155EF-D783-4B25-9C9C-A65A71085944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AEB377-4E33-4027-B79D-D92A28CAC06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1210,7 +1210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{48AEE859-B3F4-41CA-9787-B511023A6C03}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FAA6D50E-AEBF-4DA0-BC1B-030370B13487}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1240,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83374734-4D02-4A17-8DD7-E0713D5127C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC14FD7A-68A2-4396-8706-73C1A6697B9A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9540D67-935F-4A2F-AFBA-FE72EA245238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4792F8B-5526-4B24-93A1-C462C154223D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D9C21C-1A1C-4394-BFB2-D8BEB1610872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D15AF5-B189-44E3-84B0-7B11B01B0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1363,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D437A6B-31F4-6DF4-C892-0CD1AA41E3AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D1991C-F42F-30A7-04CC-92DF52886F01}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7E2FBD-97DD-8332-7790-0B52F24E9DE7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A442C1FF-5599-D102-8260-21FAEC064CFD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1431,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4B1318-EEA8-4BEB-D319-64696C214736}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A30CED-8E83-11D8-D066-42F02C40EC9F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1462,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88438BE4-87F4-6776-5FD2-F8B3D44498D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BCBAEB-BFFA-0C03-1C8D-598C14530C9E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672CD677-6D62-89E1-95B2-35F5803FB49A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EE97BC-46C2-B0CC-5DBB-4CEFB0B003E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C702A4E8-70A1-4A01-9614-6D65A206106B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F98202E-6B06-4B7E-B456-449EB2403832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1574,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851F93E3-A6F7-40A9-A810-794812B7A6C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBE5ACE-91A0-437F-87E3-BD87E233251C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29C7F9E-A263-4E69-B09B-AB0F043407C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0428CCC0-0DC2-4C20-9E00-8257C22D85A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7DD88-B8EC-4DBC-BF54-27366AA59E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AAC345-7F19-4C2C-A112-FD84C7E069DF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/VERANOPOLIS.xlsx
+++ b/VERANOPOLIS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AEB377-4E33-4027-B79D-D92A28CAC06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F22981-51BF-475B-ADEB-50CACFCEC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="301">
   <si>
     <t>COMARCA</t>
   </si>
@@ -929,15 +928,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>VERANOPOLIS</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,27 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FAA6D50E-AEBF-4DA0-BC1B-030370B13487}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{57947380-776C-412D-84C9-4DA3226B662A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1240,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC14FD7A-68A2-4396-8706-73C1A6697B9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968ED25E-08F6-4305-ABAE-CB40FE50FCB6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4792F8B-5526-4B24-93A1-C462C154223D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67984AE-A657-447B-91D3-4B3A1E75406E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D15AF5-B189-44E3-84B0-7B11B01B0A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB16A60-C0AE-45B7-B3AE-F35001CB1264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D1991C-F42F-30A7-04CC-92DF52886F01}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCFDBAC-AF6B-9BB7-4A49-028678566204}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A442C1FF-5599-D102-8260-21FAEC064CFD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECC9B3B-F55F-0311-8205-F9370CF8E968}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A30CED-8E83-11D8-D066-42F02C40EC9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EC26F5-7720-5B29-03AC-38E5868DC816}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1462,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BCBAEB-BFFA-0C03-1C8D-598C14530C9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C00EA46-8E85-C09B-501F-5BC53D106CBA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EE97BC-46C2-B0CC-5DBB-4CEFB0B003E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD02BD7A-9078-44E0-E810-99BE52B481EB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F98202E-6B06-4B7E-B456-449EB2403832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F17679-5E4A-41AF-A2A3-B433138130D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBE5ACE-91A0-437F-87E3-BD87E233251C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6725587-296C-4486-9EE3-9F3EFDE43672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0428CCC0-0DC2-4C20-9E00-8257C22D85A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63D8B8D-754B-4D71-8E66-79A4D98B5CCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AAC345-7F19-4C2C-A112-FD84C7E069DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F5E238-8183-4514-8C7D-99C37F142FB5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1942,98 +1917,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5532,52 +5507,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="32">
-        <v>83</v>
-      </c>
-      <c r="C2" s="30">
-        <v>5.4886919719613807E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/VERANOPOLIS.xlsx
+++ b/VERANOPOLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F22981-51BF-475B-ADEB-50CACFCEC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1BDE440-86E0-4213-A69C-31A1C8728EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{57947380-776C-412D-84C9-4DA3226B662A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{436A52CC-9C13-42F9-934D-DFCBAE535573}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,10 +1215,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968ED25E-08F6-4305-ABAE-CB40FE50FCB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39BF8F0-C488-40CE-84B0-4FD1BCE12192}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1256,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67984AE-A657-447B-91D3-4B3A1E75406E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31117AD-8E9E-4C46-9F36-99BD63E66121}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1319,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB16A60-C0AE-45B7-B3AE-F35001CB1264}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B95960-D725-42FB-96D4-E2486D55F813}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1338,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCFDBAC-AF6B-9BB7-4A49-028678566204}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8656A5-5EC6-CB65-EE45-FFF1943EA50B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECC9B3B-F55F-0311-8205-F9370CF8E968}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4FEC5A-8184-7971-74DB-95E73CD07C22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57EC26F5-7720-5B29-03AC-38E5868DC816}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191C8ED4-D833-C679-DE4B-4341FFDC3482}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C00EA46-8E85-C09B-501F-5BC53D106CBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65AA32A-B56C-0697-37DB-8D6209405B05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD02BD7A-9078-44E0-E810-99BE52B481EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72F47F1-5507-E593-FBE8-141E6C5208EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F17679-5E4A-41AF-A2A3-B433138130D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4097909-EE1C-4625-B0CD-65FAEE2AB572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6725587-296C-4486-9EE3-9F3EFDE43672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5680B04-A96A-4C01-ADFD-E32622F14A67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,50 +1574,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63D8B8D-754B-4D71-8E66-79A4D98B5CCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1905,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F5E238-8183-4514-8C7D-99C37F142FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E08EF-5639-4E25-A80B-0B0F2993D2BE}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
